--- a/Unity_OwnTBD_Jan2020.xlsx
+++ b/Unity_OwnTBD_Jan2020.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Win_UnityProjs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Win_UnityProjs\SueBlackman_book_1_Fogg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="589">
   <si>
     <t>Name</t>
   </si>
@@ -1827,6 +1827,334 @@
   <si>
     <t>ETHAN DRESS</t>
   </si>
+  <si>
+    <t>https://www.turbosquid.com/Search/3D-Models/free/vehicle+car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TurboSquid Free 3D Models </t>
+  </si>
+  <si>
+    <t>HateMicroWhat!@3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Agencies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISHA COMMN </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nigel-mathew-8ba1aa40/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/digitasin/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIGITAS -IN </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/exchange4media/</t>
+  </si>
+  <si>
+    <t>eXchange4-Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture &amp; Engineering with Unreal Engine Workshop
+This event has ended
+Event organized by BIM-ME BIM Experts
+November 28, 2019, 9:00 AM - November 30, 2019, 6:00 PM
+Business Bay, Dubai, AE
+Aspect Tower, Office 1003
+.....uNREAL eNGINE In Engineering About this event
+In recent years, we've reached a point where visualizations have become widespread in the architectural profession. Whether we like it or not, stylized imagery is seen as a commodity, and ultimately, renderings win competitions and commissions. Architects have become taken with beautiful renderings because clients understand pictures better than plans, and yet, the tools used to produce these attractive glitzy images are changing faster than our industry can keep up. And with technology constantly evolving, we are nowadays facing a new wave of visualization techniques, as the same render engines used to produce the tantalizingly realistic visuals in movies and video games are, for the first time, easily within our reach and for Architecture use too.
+But how Architects will use video game render engine for their projects?
+The lines across industries are blurring and companies behind the rendering engines for the most popular video games are now marketing their software directly to ARCHITECTS. The world of visualization is changing. Unreal Engine 4 is a common language between all these common fields. Creating a common language between the presently disparate fields of architecture, film, and video games, for example, suggests that the industries themselves may begin to hybridize and learn from one another. For instance, video game developers may look to architects to understand how to construct 3D buildings, while architects may learn from the navigable virtual environment of video games in order to discover new means of representation. Add to this the fact that these software packages are capable of producing lifelike-animated walkthroughs and we are left wondering, why is this not an industry standard?
+Real-time rendering is the process of using the same techniques you’ve been using for years for visualization—modeling, materials, lighting, and animation—but with the traditional rendering process replaced with a render engine that has the capability to render on the fly, in real time. It gives you the ability to see what the final result will look like right away. Even special effects like fog and depth-of-field can be viewed instantly rather than waiting for a lengthy rendering process.
+Real-Time Rendering Adoption is Increasing
+According to the latest studies, 95% of architects are interested in adopting real-time rendering solutions as a means for reviewing and editing designs with customers. Architects said they want to use real-time rendering to reduce the time from concept to high-fidelity rendered images and animations. They are more encouraged to use Unreal Engine since it is offered for free as part of Unreal Studio, a suite of tools for importing CAD, 3ds Max, and SketchUp to Unreal Engine while retaining unit scale, metadata, assemblies, and other data specific to visualization processes.
+And it’s not only for Architects and Engineers, but....
+Companies discovered the use of tools like Unreal Engine Blueprint for processing large bodies of data, therefore we can expect to see real-time technology being used in new ways to process geographical (GIS) data for mapping, sales/customer data for interactive analysis of buying patterns, and any number of other ways to show Big Data in visual media.
+By initially sacrificing time to learn and navigate these new ways of producing renderings, the quality of the final images could be substantially elevated and one may discover new benefits to using 3D environments throughout the design process. Ultimately, it is likely that future architecture software packages will allow us to take advantage of video game quality engines in an environment specifically tailored for the clear representation of architectural spaces. The question is, which architects will take the first steps?
+Stay ahead and book your place for the Architecture, Engineering and VR with UNREAL Workshop this November 28th till 30th.
+Architecture, Engineering and VR with Unreal Engine is a series of 3-day long workshop with an aim of providing insight into combining diverse digital design methodologies and the use of Unreal Engine as an aid in design exploration by looking at Complex Designs as an inter-relationship of intrinsic and extrinsic parameters.
+This workshop is an opportunity for architects, designers, artists, students of Architecture and Art interested in developing contemporary design strategies made possible through the use of digital techniques. Building up technical skills will provide the attendees with a solid platform from which to start rethinking and exploring innovative architectural ideas in collaboration with the team and the tutor.
+See less See less details about Architecture &amp; Engineering with Unreal Engine Workshop
+About Help Center 
+Privacy &amp; Terms 
+ Advertising 
+Business Services 
+Get the LinkedIn app
+ More
+ LinkedIn Corporation © 2019
+Rohit DhankarStatus is online
+Messaging You are on the messaging overlay. Press enter to open the list of conversations.
+Compose message
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.....uNREAL eNGINE In Engineering </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/mediacom/</t>
+  </si>
+  <si>
+    <t>MediaCom</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/wavemakerglobal/</t>
+  </si>
+  <si>
+    <t>wavemakerGlobal</t>
+  </si>
+  <si>
+    <t>Error_Own</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kown Bug - No Action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to find a MonoScript for UnityEditor.PackageManager.PackageManifestImporterEditor+PackageManifestState. </t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/warning-in-console-when-selecting-package-json.767249/</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/58078555/vuforia-build-support-for-unity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuforia installeed OK </t>
+  </si>
+  <si>
+    <t>https://gamedev.stackexchange.com/questions/125958/unity-capture-and-display-live-camera-feed</t>
+  </si>
+  <si>
+    <t>Live camera Feed Unity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eaqwszsH6Jg</t>
+  </si>
+  <si>
+    <t>Unity VR 360 Video Tutorial - How to Render a 360-Degree Video</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LXUoQ7VnLDc</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FART YES </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OQUtvyGrusk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fiucH5q_4VE</t>
+  </si>
+  <si>
+    <t>vuforia Unity ---- &gt;&gt;  XR is currently not supported when using the Vulkan Graphics API</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_LaVvGlkBDs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_voPc56hjto</t>
+  </si>
+  <si>
+    <t>Indian Tambi GuruGaru</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bnSp4X0uTzQ</t>
+  </si>
+  <si>
+    <t>FART Yes Main --- Alpha Channel , Shader , Albedo Light , Normal MAP , Height MAP</t>
+  </si>
+  <si>
+    <t>https://www.codementor.io/unity3d/tutorial/an-introduction-to-materials--standard-shader-in-unity</t>
+  </si>
+  <si>
+    <t>https://marchingbytes.com/about/</t>
+  </si>
+  <si>
+    <t>SardarJi--OK</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y67yW6eYb3g</t>
+  </si>
+  <si>
+    <t>360 Pic to Video Unity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/2kliksphilip/playlists</t>
+  </si>
+  <si>
+    <t>Fart Old Timer</t>
+  </si>
+  <si>
+    <t>https://github.com/sankyprabhu</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/users/5021501/sanket-prabhu</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/35148591/vuforia-project-tango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuforia Project tango </t>
+  </si>
+  <si>
+    <t xml:space="preserve">XR is what in Unity === AR + VR is == XR </t>
+  </si>
+  <si>
+    <t>sing Virtual Reality
+ (VR), Augmented Reality (AR) and Mixed Reality (MR) applications.</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/XR.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WdfStRynCLw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vuforia AR Old Vid </t>
+  </si>
+  <si>
+    <t>Failed getting available Android API levels. Could not find Android SDK Tools.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could be solution --- Ignoring for Now </t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/42538433/not-finding-android-sdk-unity</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/cannot-build-vr-vulkan-support.652027/</t>
+  </si>
+  <si>
+    <t>FleetWoodMac</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=W_O4Ygcgh8w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O8RhZDGLEXM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2ymkBEhdHBE</t>
+  </si>
+  <si>
+    <t>Byrds -- The Byrds - Eight Miles High - 9/23/1970 - Fillmore East (Offic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bCcFyR0MITQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn Turn Turn Byrds </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mLhpXUtxS1c</t>
+  </si>
+  <si>
+    <t>Born to Be Wild --- Stepen Wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Android JDK </t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/30_search.html?q=android+sdk</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/android-sdksetup.html</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/GettingStartedAddingEditorComponents.html</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/training/basics/firstapp/running-app.html#Emulator</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/android-BuildProcess.html</t>
+  </si>
+  <si>
+    <t>unity 2019 Could not find Android SDK Tools.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4W5e6-TSpW0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR Alpha Channel </t>
+  </si>
+  <si>
+    <t>https://www.turbosquid.com/AssetManager/Index.cfm?stgAction=getFiles&amp;subAction=Download&amp;intID=1062796&amp;intType=3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TurboSquid -- Free Car Models </t>
+  </si>
+  <si>
+    <t>vuforia ground plane detection unity assets store</t>
+  </si>
+  <si>
+    <t>https://library.vuforia.com/content/vuforia-library/en/articles/Solution/ground-plane-unity-sample-user-guide.html</t>
+  </si>
+  <si>
+    <t>Vuforia--Official</t>
+  </si>
+  <si>
+    <t>https://developer.vuforia.com/forum/unity/ground-plane-example-asset-store</t>
+  </si>
+  <si>
+    <t>https://developer.vuforia.com/forum/ground-plane/ground-plane-not-working</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/GraphicsAPIs.html</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/UsingDX11GL3Features.html</t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/OpenGLCoreDetails.html</t>
+  </si>
+  <si>
+    <t>https://library.vuforia.com/content/vuforia-library/en/articles/Solution/vuforia-engine-package-hosting-for-unity.html</t>
+  </si>
+  <si>
+    <t>https://forum.unity.com/threads/how-to-resolve-incompatibility-between-color-space-and-current-settings.460677/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1NPx30Iycbw&amp;list=PL_Nji0JOuXg0tJ-HQ8g0OgEjIxL5RO1R2&amp;index=5</t>
+  </si>
+  <si>
+    <t>Indian Joker --- Cube with MARKER --- Unity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/results?search_query=unity+vuforia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vuforia + AR + Unity fart MAIN </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HnjbTytHH6U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q6ERFwQNkzo&amp;t=242s</t>
+  </si>
+  <si>
+    <t>TensorFlow+ML+OpenCV+Unity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VOMysKbDNxk</t>
+  </si>
+  <si>
+    <t>MatthewHallberg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I4DthTlVAOU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OHBQYAr79Dc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FART MAIN </t>
+  </si>
 </sst>
 </file>
 
@@ -1836,7 +2164,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
     <numFmt numFmtId="165" formatCode="[$₹-4009]#,##0.00;[Red]&quot;-&quot;[$₹-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1911,8 +2239,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Liberation Sans"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1997,6 +2332,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2019,7 +2378,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2057,6 +2416,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="5" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
@@ -2345,10 +2712,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2424,6 +2791,9 @@
       <c r="C7" t="s">
         <v>422</v>
       </c>
+      <c r="F7" s="26">
+        <v>43829</v>
+      </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="19" t="s">
@@ -2431,6 +2801,64 @@
       </c>
       <c r="C8" s="13" t="s">
         <v>424</v>
+      </c>
+      <c r="F8" s="26">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15">
+      <c r="B9" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="30"/>
+      <c r="F9" s="26">
+        <v>43829</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>547</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>555</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -2441,20 +2869,28 @@
     <hyperlink ref="D5" r:id="rId4"/>
     <hyperlink ref="D6" r:id="rId5"/>
     <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
+    <hyperlink ref="C18" r:id="rId12"/>
+    <hyperlink ref="C19" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2462,27 +2898,27 @@
     <col min="1" max="8" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s">
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2616,7 +3052,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="C17" t="s">
         <v>480</v>
       </c>
@@ -2624,7 +3060,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="C18" t="s">
         <v>480</v>
       </c>
@@ -2632,7 +3068,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
         <v>483</v>
       </c>
@@ -2640,7 +3076,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>483</v>
       </c>
@@ -2648,7 +3084,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="156.75">
+    <row r="21" spans="1:5" ht="33" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>487</v>
       </c>
@@ -2659,7 +3095,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="156.75">
+    <row r="22" spans="1:5" ht="33" customHeight="1">
       <c r="A22" s="14" t="s">
         <v>487</v>
       </c>
@@ -2670,12 +3106,538 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" ht="33" customHeight="1">
       <c r="B23" t="s">
         <v>489</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>506</v>
+      </c>
+      <c r="B24" t="s">
+        <v>508</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="E24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" t="s">
+        <v>515</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="B28" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="B29" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="B30" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32" t="s">
+        <v>531</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" t="s">
+        <v>506</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="B36" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="B37" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="33" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="B39" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="143.25">
+      <c r="A40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>540</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="B41" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="13" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" t="s">
+        <v>506</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" t="s">
+        <v>506</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" t="s">
+        <v>506</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" t="s">
+        <v>506</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" t="s">
+        <v>506</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" t="s">
+        <v>506</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>562</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="D50" s="13"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="13" t="s">
+        <v>541</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="B55" s="35"/>
+      <c r="C55" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="13" t="s">
+        <v>453</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="36" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="B61" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="B62" s="32"/>
+      <c r="D62" s="13"/>
+    </row>
+    <row r="63" spans="1:7" ht="15">
+      <c r="B63" s="32"/>
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>566</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="13" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>569</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>569</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="D68" s="13" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="D69" s="13" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="D70" s="13" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="D71" s="13" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="D72" s="13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="B73" t="s">
+        <v>578</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="D75" s="13"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="D76" s="13"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="D77" s="13"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="D78" s="13"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="D79" s="13"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="D80" s="13"/>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="D81" s="13"/>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="C83" t="s">
+        <v>533</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="C84" t="s">
+        <v>529</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="C85" t="s">
+        <v>517</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="C86" t="s">
+        <v>517</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87" t="s">
+        <v>537</v>
+      </c>
+      <c r="C87" t="s">
+        <v>517</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -2699,9 +3661,60 @@
     <hyperlink ref="D21" r:id="rId17"/>
     <hyperlink ref="D22" r:id="rId18" display="https://github.com/Apress/learn-unity-for-win-10/tree/master/source code/Import Test_Ch04/Import Test/Assets/3D Assets"/>
     <hyperlink ref="D23" r:id="rId19"/>
+    <hyperlink ref="D24" r:id="rId20"/>
+    <hyperlink ref="D25" r:id="rId21"/>
+    <hyperlink ref="D26" r:id="rId22"/>
+    <hyperlink ref="D29" r:id="rId23"/>
+    <hyperlink ref="D28" r:id="rId24"/>
+    <hyperlink ref="D27" r:id="rId25"/>
+    <hyperlink ref="D30" r:id="rId26"/>
+    <hyperlink ref="D36" r:id="rId27"/>
+    <hyperlink ref="D37" r:id="rId28"/>
+    <hyperlink ref="D38" r:id="rId29"/>
+    <hyperlink ref="D39" r:id="rId30"/>
+    <hyperlink ref="D84" r:id="rId31"/>
+    <hyperlink ref="D31" r:id="rId32"/>
+    <hyperlink ref="D32" r:id="rId33"/>
+    <hyperlink ref="D83" r:id="rId34"/>
+    <hyperlink ref="D85" r:id="rId35"/>
+    <hyperlink ref="D86" r:id="rId36"/>
+    <hyperlink ref="D87" r:id="rId37"/>
+    <hyperlink ref="D40" r:id="rId38"/>
+    <hyperlink ref="D41" r:id="rId39"/>
+    <hyperlink ref="D42" r:id="rId40"/>
+    <hyperlink ref="D43" r:id="rId41"/>
+    <hyperlink ref="D44" r:id="rId42"/>
+    <hyperlink ref="D45" r:id="rId43"/>
+    <hyperlink ref="D46" r:id="rId44"/>
+    <hyperlink ref="D47" r:id="rId45" location="Emulator" display="https://developer.android.com/training/basics/firstapp/running-app.html - Emulator"/>
+    <hyperlink ref="D48" r:id="rId46"/>
+    <hyperlink ref="D61" r:id="rId47"/>
+    <hyperlink ref="D64" r:id="rId48"/>
+    <hyperlink ref="D65" r:id="rId49"/>
+    <hyperlink ref="D66" r:id="rId50"/>
+    <hyperlink ref="D67" r:id="rId51"/>
+    <hyperlink ref="D68" r:id="rId52"/>
+    <hyperlink ref="D69" r:id="rId53"/>
+    <hyperlink ref="D70" r:id="rId54"/>
+    <hyperlink ref="D71" r:id="rId55"/>
+    <hyperlink ref="D72" r:id="rId56"/>
+    <hyperlink ref="D73" r:id="rId57"/>
+    <hyperlink ref="C50" r:id="rId58"/>
+    <hyperlink ref="C51" r:id="rId59"/>
+    <hyperlink ref="C52" r:id="rId60"/>
+    <hyperlink ref="C53" r:id="rId61"/>
+    <hyperlink ref="C54" r:id="rId62"/>
+    <hyperlink ref="D53" r:id="rId63" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="D54" r:id="rId64" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="C55" r:id="rId65"/>
+    <hyperlink ref="D55" r:id="rId66" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="C56" r:id="rId67"/>
+    <hyperlink ref="D56:D59" r:id="rId68" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="C57" r:id="rId69"/>
+    <hyperlink ref="C58" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId71"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -2711,13 +3724,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4340,211 +5353,346 @@
         <v>467</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="156" spans="1:5">
+      <c r="C156" t="s">
+        <v>513</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15">
       <c r="A157" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" t="s">
-        <v>17</v>
-      </c>
-      <c r="C158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" t="s">
-        <v>19</v>
-      </c>
-      <c r="C159" t="s">
-        <v>20</v>
-      </c>
-      <c r="D159" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" t="s">
-        <v>21</v>
-      </c>
-      <c r="C161" t="s">
-        <v>23</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="B157" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="C157" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="D157" s="13" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15">
+      <c r="B158" s="32"/>
+      <c r="C158" s="32"/>
+      <c r="D158" s="13"/>
+    </row>
+    <row r="159" spans="1:5" ht="15">
+      <c r="B159" s="32"/>
+      <c r="C159" s="32"/>
+      <c r="D159" s="13"/>
+    </row>
+    <row r="160" spans="1:5" ht="15">
+      <c r="B160" s="32"/>
+      <c r="C160" s="32"/>
+      <c r="D160" s="13"/>
+    </row>
+    <row r="161" spans="1:4" ht="15">
+      <c r="B161" s="32"/>
+      <c r="C161" s="32"/>
+      <c r="D161" s="13"/>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" t="s">
-        <v>24</v>
+        <v>493</v>
+      </c>
+      <c r="B162" t="s">
+        <v>494</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" t="s">
-        <v>25</v>
-      </c>
-      <c r="D163" t="s">
-        <v>26</v>
+        <v>493</v>
+      </c>
+      <c r="B163" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>21</v>
-      </c>
-      <c r="C164" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" t="s">
-        <v>26</v>
+        <v>493</v>
+      </c>
+      <c r="B164" t="s">
+        <v>497</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>21</v>
-      </c>
-      <c r="C165" t="s">
-        <v>28</v>
+        <v>493</v>
+      </c>
+      <c r="B165" t="s">
+        <v>499</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>21</v>
-      </c>
-      <c r="C166" t="s">
-        <v>29</v>
-      </c>
-      <c r="D166" t="s">
-        <v>30</v>
+        <v>493</v>
+      </c>
+      <c r="B166" t="s">
+        <v>503</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>21</v>
-      </c>
-      <c r="C167" t="s">
-        <v>31</v>
+        <v>493</v>
+      </c>
+      <c r="B167" t="s">
+        <v>505</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>21</v>
-      </c>
-      <c r="C168" t="s">
-        <v>32</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C168" s="13"/>
     </row>
     <row r="169" spans="1:4">
-      <c r="C169" s="13" t="s">
-        <v>413</v>
-      </c>
+      <c r="A169" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" s="13"/>
     </row>
     <row r="170" spans="1:4">
-      <c r="C170" s="13" t="s">
-        <v>414</v>
-      </c>
+      <c r="A170" t="s">
+        <v>493</v>
+      </c>
+      <c r="C170" s="13"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>493</v>
+      </c>
+      <c r="C171" s="13"/>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>33</v>
-      </c>
-      <c r="D172" t="s">
-        <v>34</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C172" s="13"/>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
+        <v>493</v>
+      </c>
+      <c r="C173" s="13"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="D174" s="13"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="D175" s="13"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="D176" s="13"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="D177" s="13"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="D178" s="13"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="C180" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D181" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>21</v>
+      </c>
+      <c r="C183" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" t="s">
+        <v>27</v>
+      </c>
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="C188" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="C190" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="C191" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="C192" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
         <v>35</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D195" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" t="s">
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
         <v>35</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C196" t="s">
         <v>37</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D196" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" t="s">
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
         <v>35</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C197" t="s">
         <v>437</v>
       </c>
-      <c r="D175" s="13" t="s">
+      <c r="D197" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" t="s">
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
         <v>35</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C198" t="s">
         <v>437</v>
       </c>
-      <c r="D176" s="13" t="s">
+      <c r="D198" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
         <v>35</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C199" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>35</v>
-      </c>
-      <c r="C178" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>35</v>
-      </c>
-      <c r="C179" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>35</v>
-      </c>
-      <c r="C180" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>35</v>
-      </c>
-      <c r="C181" t="s">
-        <v>437</v>
+    <row r="218" spans="2:3">
+      <c r="C218" s="13"/>
+    </row>
+    <row r="220" spans="2:3" ht="409.5">
+      <c r="B220" t="s">
+        <v>501</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -4610,8 +5758,8 @@
     <hyperlink ref="C121" r:id="rId59"/>
     <hyperlink ref="C123" r:id="rId60"/>
     <hyperlink ref="C126" r:id="rId61" location="windows"/>
-    <hyperlink ref="C169" r:id="rId62"/>
-    <hyperlink ref="C170" r:id="rId63"/>
+    <hyperlink ref="C191" r:id="rId62"/>
+    <hyperlink ref="C192" r:id="rId63"/>
     <hyperlink ref="C127" r:id="rId64"/>
     <hyperlink ref="E127" r:id="rId65"/>
     <hyperlink ref="C128" r:id="rId66"/>
@@ -4627,23 +5775,23 @@
     <hyperlink ref="C138" r:id="rId76"/>
     <hyperlink ref="C139" r:id="rId77"/>
     <hyperlink ref="C140" r:id="rId78"/>
-    <hyperlink ref="C157" r:id="rId79"/>
-    <hyperlink ref="C158" r:id="rId80"/>
-    <hyperlink ref="C159" r:id="rId81"/>
-    <hyperlink ref="C160" r:id="rId82"/>
-    <hyperlink ref="C161" r:id="rId83"/>
-    <hyperlink ref="C162" r:id="rId84"/>
-    <hyperlink ref="C163" r:id="rId85"/>
-    <hyperlink ref="C164" r:id="rId86"/>
-    <hyperlink ref="C165" r:id="rId87"/>
-    <hyperlink ref="C166" r:id="rId88"/>
-    <hyperlink ref="C167" r:id="rId89"/>
-    <hyperlink ref="C168" r:id="rId90" location="answers"/>
-    <hyperlink ref="D172" r:id="rId91" location="tab_id_datascienceindia_pythonanywhere_com"/>
-    <hyperlink ref="D173" r:id="rId92"/>
-    <hyperlink ref="D174" r:id="rId93"/>
-    <hyperlink ref="D175" r:id="rId94"/>
-    <hyperlink ref="D176" r:id="rId95"/>
+    <hyperlink ref="C179" r:id="rId79"/>
+    <hyperlink ref="C180" r:id="rId80"/>
+    <hyperlink ref="C181" r:id="rId81"/>
+    <hyperlink ref="C182" r:id="rId82"/>
+    <hyperlink ref="C183" r:id="rId83"/>
+    <hyperlink ref="C184" r:id="rId84"/>
+    <hyperlink ref="C185" r:id="rId85"/>
+    <hyperlink ref="C186" r:id="rId86"/>
+    <hyperlink ref="C187" r:id="rId87"/>
+    <hyperlink ref="C188" r:id="rId88"/>
+    <hyperlink ref="C189" r:id="rId89"/>
+    <hyperlink ref="C190" r:id="rId90" location="answers"/>
+    <hyperlink ref="D194" r:id="rId91" location="tab_id_datascienceindia_pythonanywhere_com"/>
+    <hyperlink ref="D195" r:id="rId92"/>
+    <hyperlink ref="D196" r:id="rId93"/>
+    <hyperlink ref="D197" r:id="rId94"/>
+    <hyperlink ref="D198" r:id="rId95"/>
     <hyperlink ref="C143" r:id="rId96"/>
     <hyperlink ref="C144" r:id="rId97"/>
     <hyperlink ref="C142" r:id="rId98"/>
@@ -4657,9 +5805,16 @@
     <hyperlink ref="D152" r:id="rId106"/>
     <hyperlink ref="D155" r:id="rId107"/>
     <hyperlink ref="D153" r:id="rId108"/>
+    <hyperlink ref="C162" r:id="rId109"/>
+    <hyperlink ref="C164" r:id="rId110"/>
+    <hyperlink ref="C165" r:id="rId111"/>
+    <hyperlink ref="C166" r:id="rId112"/>
+    <hyperlink ref="C167" r:id="rId113"/>
+    <hyperlink ref="D156" r:id="rId114"/>
+    <hyperlink ref="D157" r:id="rId115"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId109"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId116"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/Unity_OwnTBD_Jan2020.xlsx
+++ b/Unity_OwnTBD_Jan2020.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="630">
   <si>
     <t>Name</t>
   </si>
@@ -2155,6 +2155,129 @@
   <si>
     <t xml:space="preserve">FART MAIN </t>
   </si>
+  <si>
+    <t>London Scape technologies Augmented Reality Unity</t>
+  </si>
+  <si>
+    <t>https://scape.io/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android SDK - All </t>
+  </si>
+  <si>
+    <t>Emulator</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/run/emulator</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/build/apk-analyzer</t>
+  </si>
+  <si>
+    <t>APK analyser</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/intro</t>
+  </si>
+  <si>
+    <t>STUDIO Intro</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/run/managing-avds#createavd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Android Virtual Device --- AVD </t>
+  </si>
+  <si>
+    <t>MicroSoftAccount</t>
+  </si>
+  <si>
+    <t>dhankar.rohit@gmail.com</t>
+  </si>
+  <si>
+    <t>MicroHateUnity!@3</t>
+  </si>
+  <si>
+    <t>This PC\Nokia 3\Internal shared storage\DCIM\.thumbnails</t>
+  </si>
+  <si>
+    <t>FART TBD Nokia Phone Own Thumbnails Ranveer baby</t>
+  </si>
+  <si>
+    <t>https://answers.unity.com/questions/1628598/set-up-android-sdk-path-to-make-android-remote-wor.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own ERROR --- cant Configure SDK PATH </t>
+  </si>
+  <si>
+    <t>https://learn.unity.com/tutorial/building-for-mobile#5c7f8528edbc2a002053b4a2</t>
+  </si>
+  <si>
+    <t>SOLVED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOLVED -- cant Configure SDK PATH </t>
+  </si>
+  <si>
+    <t>https://docs.unity3d.com/Manual/UnityRemote5.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unity Remote 5 </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=usT9Sv00v8w</t>
+  </si>
+  <si>
+    <t>Android App Bundles --- .aab File to apk</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/50419286/install-android-app-bundle-on-device/50465619</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/results?search_query=bundletool+build-apks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/test</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/debug</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Android Emulator --- AVD </t>
+  </si>
+  <si>
+    <t>https://developer.android.com/studio/command-line/bundletool</t>
+  </si>
+  <si>
+    <t>BundleTool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nancy Drew Game </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A PC game which the creators ried to move to a Mobile platforem </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J_FVpGkH7VY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6sv69tw6fCk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9SrMT0wsuXQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FART Fancy Graphics </t>
+  </si>
+  <si>
+    <t>http://adventuremob.com/</t>
+  </si>
 </sst>
 </file>
 
@@ -2247,7 +2370,7 @@
       <name val="Liberation Sans"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2356,6 +2479,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2378,7 +2513,7 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2424,6 +2559,12 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" xfId="5" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Heading" xfId="1"/>
@@ -2712,16 +2853,32 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:F19"/>
+  <dimension ref="B1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C1" t="s">
+        <v>603</v>
+      </c>
+    </row>
     <row r="2" spans="2:6">
-      <c r="C2" s="13"/>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="19" t="s">
@@ -2876,21 +3033,23 @@
     <hyperlink ref="C17" r:id="rId11"/>
     <hyperlink ref="C18" r:id="rId12"/>
     <hyperlink ref="C19" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId14"/>
+    <hyperlink ref="D2" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3378,41 +3537,38 @@
         <v>580</v>
       </c>
       <c r="B50" s="35"/>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="35" t="s">
         <v>580</v>
       </c>
       <c r="B51" s="35"/>
-      <c r="C51" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="D51" s="13"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="35" t="s">
         <v>580</v>
       </c>
       <c r="B52" s="35"/>
-      <c r="C52" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="D52" s="13"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="35" t="s">
         <v>583</v>
       </c>
       <c r="B53" s="35"/>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D53" s="13" t="s">
         <v>582</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3420,11 +3576,11 @@
         <v>583</v>
       </c>
       <c r="B54" s="35"/>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>584</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3432,31 +3588,31 @@
         <v>583</v>
       </c>
       <c r="B55" s="35"/>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D55" s="13" t="s">
         <v>586</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D56" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D56" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D57" s="13" t="s">
         <v>587</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3464,18 +3620,17 @@
         <v>588</v>
       </c>
       <c r="B58" s="35"/>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="36" t="s">
+        <v>585</v>
+      </c>
+      <c r="D58" s="13" t="s">
         <v>453</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="35"/>
       <c r="B59" s="35"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="36" t="s">
+      <c r="C59" s="36" t="s">
         <v>585</v>
       </c>
     </row>
@@ -3483,160 +3638,468 @@
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="1:7" ht="15">
-      <c r="B61" s="32" t="s">
+      <c r="D60" s="36"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="36" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>592</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="36" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>599</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="36"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="35" t="s">
+        <v>591</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>595</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="36"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="39" t="s">
+        <v>609</v>
+      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40" t="s">
+        <v>607</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>608</v>
+      </c>
+      <c r="F69" s="39"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B70" s="41"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42" t="s">
+        <v>610</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="41" t="s">
+        <v>611</v>
+      </c>
+      <c r="B71" s="41"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>613</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="41"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="41"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="C76" s="42"/>
+      <c r="D76" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="C77" s="42"/>
+      <c r="D77" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="39"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" s="41"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="39"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="39"/>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="B81" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D81" s="13" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="15">
-      <c r="B62" s="32"/>
-      <c r="D62" s="13"/>
-    </row>
-    <row r="63" spans="1:7" ht="15">
-      <c r="B63" s="32"/>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
+    <row r="82" spans="1:4" ht="15">
+      <c r="B82" s="32"/>
+      <c r="D82" s="13"/>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="B83" s="32"/>
+      <c r="D83" s="13"/>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C84" t="s">
+        <v>624</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="32" t="s">
+        <v>623</v>
+      </c>
+      <c r="C85" t="s">
+        <v>624</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" t="s">
+        <v>154</v>
+      </c>
+      <c r="B87" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="B88" s="32"/>
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="B89" s="32"/>
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="B90" s="32"/>
+      <c r="D90" s="13"/>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="B91" s="32"/>
+      <c r="D91" s="13"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
         <v>566</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D92" s="13" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
-      <c r="A65" s="15" t="s">
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B93" s="15" t="s">
         <v>567</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="13" t="s">
+      <c r="C93" s="15"/>
+      <c r="D93" s="13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
         <v>569</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D94" s="13" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
         <v>569</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="D68" s="13" t="s">
+    <row r="96" spans="1:4">
+      <c r="D96" s="13" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="D69" s="13" t="s">
+    <row r="97" spans="2:4">
+      <c r="D97" s="13" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="D70" s="13" t="s">
+    <row r="98" spans="2:4">
+      <c r="D98" s="13" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="D71" s="13" t="s">
+    <row r="99" spans="2:4">
+      <c r="D99" s="13" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="D72" s="13" t="s">
+    <row r="100" spans="2:4">
+      <c r="D100" s="13" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="B73" t="s">
+    <row r="101" spans="2:4">
+      <c r="B101" t="s">
         <v>578</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D101" s="13" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="D74" s="13"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="D75" s="13"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="D76" s="13"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="D77" s="13"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="D78" s="13"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="D79" s="13"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="D80" s="13"/>
-    </row>
-    <row r="81" spans="2:4">
-      <c r="D81" s="13"/>
-    </row>
-    <row r="82" spans="2:4">
-      <c r="D82" s="13"/>
-    </row>
-    <row r="83" spans="2:4">
-      <c r="C83" t="s">
+    <row r="102" spans="2:4">
+      <c r="D102" s="13"/>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="D103" s="13"/>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="D104" s="13"/>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="D105" s="13"/>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="D106" s="13"/>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="D107" s="13"/>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="D109" s="13"/>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="D110" s="13"/>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="C111" t="s">
         <v>533</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D111" s="13" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="84" spans="2:4">
-      <c r="C84" t="s">
+    <row r="112" spans="2:4">
+      <c r="C112" t="s">
         <v>529</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D112" s="13" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="85" spans="2:4">
-      <c r="C85" t="s">
+    <row r="113" spans="2:4">
+      <c r="C113" t="s">
         <v>517</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D113" s="13" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="86" spans="2:4">
-      <c r="C86" t="s">
+    <row r="114" spans="2:4">
+      <c r="C114" t="s">
         <v>517</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D114" s="13" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="87" spans="2:4">
-      <c r="B87" t="s">
+    <row r="115" spans="2:4">
+      <c r="B115" t="s">
         <v>537</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C115" t="s">
         <v>517</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D115" s="13" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3672,13 +4135,13 @@
     <hyperlink ref="D37" r:id="rId28"/>
     <hyperlink ref="D38" r:id="rId29"/>
     <hyperlink ref="D39" r:id="rId30"/>
-    <hyperlink ref="D84" r:id="rId31"/>
+    <hyperlink ref="D112" r:id="rId31"/>
     <hyperlink ref="D31" r:id="rId32"/>
     <hyperlink ref="D32" r:id="rId33"/>
-    <hyperlink ref="D83" r:id="rId34"/>
-    <hyperlink ref="D85" r:id="rId35"/>
-    <hyperlink ref="D86" r:id="rId36"/>
-    <hyperlink ref="D87" r:id="rId37"/>
+    <hyperlink ref="D111" r:id="rId34"/>
+    <hyperlink ref="D113" r:id="rId35"/>
+    <hyperlink ref="D114" r:id="rId36"/>
+    <hyperlink ref="D115" r:id="rId37"/>
     <hyperlink ref="D40" r:id="rId38"/>
     <hyperlink ref="D41" r:id="rId39"/>
     <hyperlink ref="D42" r:id="rId40"/>
@@ -3688,33 +4151,52 @@
     <hyperlink ref="D46" r:id="rId44"/>
     <hyperlink ref="D47" r:id="rId45" location="Emulator" display="https://developer.android.com/training/basics/firstapp/running-app.html - Emulator"/>
     <hyperlink ref="D48" r:id="rId46"/>
-    <hyperlink ref="D61" r:id="rId47"/>
-    <hyperlink ref="D64" r:id="rId48"/>
-    <hyperlink ref="D65" r:id="rId49"/>
-    <hyperlink ref="D66" r:id="rId50"/>
-    <hyperlink ref="D67" r:id="rId51"/>
-    <hyperlink ref="D68" r:id="rId52"/>
-    <hyperlink ref="D69" r:id="rId53"/>
-    <hyperlink ref="D70" r:id="rId54"/>
-    <hyperlink ref="D71" r:id="rId55"/>
-    <hyperlink ref="D72" r:id="rId56"/>
-    <hyperlink ref="D73" r:id="rId57"/>
-    <hyperlink ref="C50" r:id="rId58"/>
-    <hyperlink ref="C51" r:id="rId59"/>
-    <hyperlink ref="C52" r:id="rId60"/>
-    <hyperlink ref="C53" r:id="rId61"/>
-    <hyperlink ref="C54" r:id="rId62"/>
-    <hyperlink ref="D53" r:id="rId63" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
-    <hyperlink ref="D54" r:id="rId64" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
-    <hyperlink ref="C55" r:id="rId65"/>
-    <hyperlink ref="D55" r:id="rId66" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
-    <hyperlink ref="C56" r:id="rId67"/>
-    <hyperlink ref="D56:D59" r:id="rId68" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
-    <hyperlink ref="C57" r:id="rId69"/>
-    <hyperlink ref="C58" r:id="rId70"/>
+    <hyperlink ref="D81" r:id="rId47"/>
+    <hyperlink ref="D92" r:id="rId48"/>
+    <hyperlink ref="D93" r:id="rId49"/>
+    <hyperlink ref="D94" r:id="rId50"/>
+    <hyperlink ref="D95" r:id="rId51"/>
+    <hyperlink ref="D96" r:id="rId52"/>
+    <hyperlink ref="D97" r:id="rId53"/>
+    <hyperlink ref="D98" r:id="rId54"/>
+    <hyperlink ref="D99" r:id="rId55"/>
+    <hyperlink ref="D100" r:id="rId56"/>
+    <hyperlink ref="D101" r:id="rId57"/>
+    <hyperlink ref="D50" r:id="rId58"/>
+    <hyperlink ref="D51" r:id="rId59"/>
+    <hyperlink ref="D52" r:id="rId60"/>
+    <hyperlink ref="D53" r:id="rId61"/>
+    <hyperlink ref="D54" r:id="rId62"/>
+    <hyperlink ref="C53" r:id="rId63" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="C54" r:id="rId64" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="D55" r:id="rId65"/>
+    <hyperlink ref="C55" r:id="rId66" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="D56" r:id="rId67"/>
+    <hyperlink ref="C56:C59" r:id="rId68" display="https://www.youtube.com/channel/UClm2DY6pj3ygKoKhEVr7KFw"/>
+    <hyperlink ref="D57" r:id="rId69"/>
+    <hyperlink ref="D58" r:id="rId70"/>
+    <hyperlink ref="D61" r:id="rId71"/>
+    <hyperlink ref="D63" r:id="rId72"/>
+    <hyperlink ref="D66" r:id="rId73"/>
+    <hyperlink ref="D62" r:id="rId74"/>
+    <hyperlink ref="D64" r:id="rId75" location="createavd" display="https://developer.android.com/studio/run/managing-avds - createavd"/>
+    <hyperlink ref="D68" r:id="rId76"/>
+    <hyperlink ref="D69" r:id="rId77" location="5c7f8528edbc2a002053b4a2" display="https://learn.unity.com/tutorial/building-for-mobile - 5c7f8528edbc2a002053b4a2"/>
+    <hyperlink ref="D70" r:id="rId78"/>
+    <hyperlink ref="D71" r:id="rId79"/>
+    <hyperlink ref="D72" r:id="rId80"/>
+    <hyperlink ref="D73" r:id="rId81"/>
+    <hyperlink ref="D74" r:id="rId82"/>
+    <hyperlink ref="D75" r:id="rId83"/>
+    <hyperlink ref="D76" r:id="rId84"/>
+    <hyperlink ref="D77" r:id="rId85"/>
+    <hyperlink ref="D84" r:id="rId86"/>
+    <hyperlink ref="D85" r:id="rId87"/>
+    <hyperlink ref="D86" r:id="rId88"/>
+    <hyperlink ref="D87" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0.39370078740157477" bottom="0.39370078740157477" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId71"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId90"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3727,10 +4209,10 @@
   <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B149" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C158" sqref="C158"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
